--- a/output/scores/dnn_more.xlsx
+++ b/output/scores/dnn_more.xlsx
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:W252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
+      <selection pane="topLeft" activeCell="A166" activeCellId="1" sqref="M15:Q24 A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5147,7 +5147,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="M15:Q24 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6255,8 +6255,8 @@
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6848,31 +6848,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.61</v>
+        <v>0.17</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>0</v>
@@ -6910,31 +6910,31 @@
         <v>2</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>1520</v>
+        <v>17518</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>1520</v>
+        <v>17518</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>2</v>
@@ -6972,31 +6972,31 @@
         <v>8</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>8</v>
@@ -7098,31 +7098,31 @@
         <v>0</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.69</v>
+        <v>0.52</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.77</v>
+        <v>0.16</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.73</v>
+        <v>0.25</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.73</v>
+        <v>0.22</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>0</v>
@@ -7163,28 +7163,28 @@
         <v>0.95</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>500</v>
+        <v>5835</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>500</v>
+        <v>5835</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>2</v>
@@ -7222,31 +7222,31 @@
         <v>8</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.85</v>
+        <v>0.58</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>609</v>
+        <v>6196</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>609</v>
+        <v>6196</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>8</v>

--- a/output/scores/dnn_more.xlsx
+++ b/output/scores/dnn_more.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="c-tune topology" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="c" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="td" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="tdc-a" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="46">
   <si>
     <t xml:space="preserve">Cnn, 2 dropouts, learned w emb</t>
   </si>
@@ -1022,6 +1023,12 @@
   <si>
     <t xml:space="preserve">talktalk</t>
   </si>
+  <si>
+    <t xml:space="preserve"> for data from c :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for data from td :</t>
+  </si>
 </sst>
 </file>
 
@@ -1197,7 +1204,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1256,6 +1263,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1356,7 +1375,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1382,6 +1401,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1415,7 +1450,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00FF7F"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1481,7 +1516,7 @@
   <dimension ref="A1:W252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A166" activeCellId="1" sqref="M15:Q24 A166"/>
+      <selection pane="topLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5146,8 +5181,8 @@
   </sheetPr>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="M15:Q24 D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6255,8 +6290,8 @@
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15:Q24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6333,61 +6368,61 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.68</v>
+        <v>0.29</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,61 +6430,61 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1520</v>
+        <v>17518</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1520</v>
+        <v>17518</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="P4" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>1520</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0.94</v>
-      </c>
       <c r="U4" s="0" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>1520</v>
+        <v>17518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,61 +6492,61 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0.81</v>
+        <v>0.62</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,61 +6618,61 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.75</v>
+        <v>0.36</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.75</v>
+        <v>0.27</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.75</v>
+        <v>0.31</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.81</v>
+        <v>0.28</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>0.78</v>
+        <v>0.37</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,31 +6680,31 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>0.95</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0.93</v>
-      </c>
       <c r="K10" s="0" t="n">
-        <v>500</v>
+        <v>5835</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>2</v>
@@ -6678,13 +6713,13 @@
         <v>0.96</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>500</v>
+        <v>5835</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>2</v>
@@ -6693,75 +6728,75 @@
         <v>0.96</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>500</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>609</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>609</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>609</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>609</v>
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>6196</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>6196</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>6196</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,16 +6913,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>305</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,16 +6975,16 @@
         <v>2</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>1520</v>
+        <v>17518</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7002,16 +7037,16 @@
         <v>8</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>1825</v>
+        <v>18587</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,16 +7163,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>0.69</v>
+        <v>0.55</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>0.74</v>
+        <v>0.28</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>109</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,13 +7228,13 @@
         <v>0.95</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>500</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7252,16 +7287,16 @@
         <v>8</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>609</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,6 +7442,3019 @@
       </c>
       <c r="C48" s="0" t="n">
         <v>31.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W82"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1378</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1378</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>19031</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>19031</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>19031</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>19031</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20409</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>20409</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>20409</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>20409</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17514</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>17514</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>17514</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>17514</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>18568</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>18568</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>18568</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>18568</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>6804</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>6804</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>6804</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>593</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>593</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>6211</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>6211</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>6211</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>1378</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>1378</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>19031</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>19031</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>19031</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>19031</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>20409</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>20409</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>20409</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>20409</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>17514</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>17514</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>17514</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>17514</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>18568</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>18568</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>18568</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>18568</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>6804</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>6804</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>6804</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S71" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W72" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W79" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>6211</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>6211</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>6211</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>6211</v>
       </c>
     </row>
   </sheetData>

--- a/output/scores/dnn_more.xlsx
+++ b/output/scores/dnn_more.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="c-tune topology" sheetId="1" state="visible" r:id="rId2"/>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:W252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A166" activeCellId="1" sqref="S2:W17 A166"/>
+      <selection pane="topLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5202,7 +5202,7 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="S2:W17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8214,8 +8214,8 @@
   </sheetPr>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S28" activeCellId="1" sqref="S2:W17 S28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9523,8 +9523,8 @@
   </sheetPr>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S28" activeCellId="1" sqref="S2:W17 S28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10900,7 +10900,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="S2:W17 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11680,7 +11680,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:W17"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12584,7 +12584,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="S2:W17 R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13487,8 +13487,8 @@
   </sheetPr>
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:W17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/output/scores/dnn_more.xlsx
+++ b/output/scores/dnn_more.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="c-tune topology" sheetId="1" state="visible" r:id="rId2"/>
@@ -9523,7 +9523,7 @@
   </sheetPr>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -10899,8 +10899,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
